--- a/xlsx/a69_f10_bUPPachuca.xlsx
+++ b/xlsx/a69_f10_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\RH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -714,15 +714,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2020</v>
       </c>
       <c r="B8" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C8" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>40</v>
       </c>
       <c r="K8" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="L8" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="M8" s="2"/>
     </row>

--- a/xlsx/a69_f10_bUPPachuca.xlsx
+++ b/xlsx/a69_f10_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\RH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,13 @@
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
-    <t>Personal plazas y vacantes_Total de plazas vacantes y ocupadas del personal de base y confianza</t>
+    <t>2021. Total de plazas vacantes y ocupadas. 2018-2020. Total de plazas vacantes y ocupadas del personal de base y confianza.</t>
   </si>
   <si>
     <t>a69_f10_b</t>
   </si>
   <si>
-    <t>Total de plazas vacantes y ocupadas del personal de base y confianza</t>
+    <t>Total de plazas vacantes y ocupadas</t>
   </si>
   <si>
     <t>1</t>
@@ -215,23 +215,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,38 +549,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -657,21 +665,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -714,44 +722,44 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="4">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44286</v>
+      </c>
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>53</v>
       </c>
-      <c r="H8" s="4">
-        <v>52</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="H8" s="3">
+        <v>53</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="L8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="M8" s="2"/>
+      <c r="K8" s="2">
+        <v>44298</v>
+      </c>
+      <c r="L8" s="2">
+        <v>44298</v>
+      </c>
+      <c r="M8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/xlsx/a69_f10_bUPPachuca.xlsx
+++ b/xlsx/a69_f10_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -223,6 +223,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -237,9 +238,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,38 +547,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -665,21 +663,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -722,15 +720,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>2021</v>
       </c>
       <c r="B8" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -750,14 +748,14 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="L8" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M8" s="3"/>
     </row>

--- a/xlsx/a69_f10_bUPPachuca.xlsx
+++ b/xlsx/a69_f10_bUPPachuca.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -298,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,7 +333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -725,37 +725,37 @@
         <v>2021</v>
       </c>
       <c r="B8" s="2">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="2">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="3">
+        <v>44469</v>
+      </c>
+      <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>53</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>53</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <v>0</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="2">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="L8" s="2">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="M8" s="3"/>
     </row>

--- a/xlsx/a69_f10_bUPPachuca.xlsx
+++ b/xlsx/a69_f10_bUPPachuca.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -161,13 +161,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -215,28 +213,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -521,7 +513,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G3" sqref="G3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +530,7 @@
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -563,18 +555,18 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="6"/>
@@ -721,14 +713,14 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>2021</v>
       </c>
-      <c r="B8" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44469</v>
+      <c r="B8" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44561</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -748,16 +740,16 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="2">
-        <v>44480</v>
-      </c>
-      <c r="L8" s="2">
-        <v>44480</v>
-      </c>
-      <c r="M8" s="3"/>
+      <c r="K8" s="3">
+        <v>44571</v>
+      </c>
+      <c r="L8" s="3">
+        <v>44571</v>
+      </c>
+      <c r="M8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/xlsx/a69_f10_bUPPachuca.xlsx
+++ b/xlsx/a69_f10_bUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\Actualización de Observaciones Pagina Oficial 4to Trimestre\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -513,14 +513,14 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="78.140625" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>

--- a/xlsx/a69_f10_bUPPachuca.xlsx
+++ b/xlsx/a69_f10_bUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\Actualización de Observaciones Pagina Oficial 4to Trimestre\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>52369</t>
   </si>
@@ -141,7 +136,10 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Departamento de Recursos Humanos (UPP)</t>
+    <t>Recursos Humanos (UPP)</t>
+  </si>
+  <si>
+    <t>La plaza del Titular del Órgano Interno de Control, se pago hasta el 15 de enero, ya que dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría</t>
   </si>
 </sst>
 </file>
@@ -161,11 +159,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -224,7 +224,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,7 +504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -512,15 +514,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="48" customWidth="1"/>
-    <col min="3" max="3" width="78.140625" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
@@ -530,7 +532,7 @@
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -712,44 +714,46 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="4">
+        <v>44651</v>
+      </c>
+      <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>53</v>
       </c>
-      <c r="H8" s="4">
-        <v>53</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
+      <c r="H8" s="2">
+        <v>51</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="L8" s="3">
-        <v>44571</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>44659</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/xlsx/a69_f10_bUPPachuca.xlsx
+++ b/xlsx/a69_f10_bUPPachuca.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>52369</t>
   </si>
@@ -28,9 +28,6 @@
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
-    <t>2021. Total de plazas vacantes y ocupadas. 2018-2020. Total de plazas vacantes y ocupadas del personal de base y confianza.</t>
-  </si>
-  <si>
     <t>a69_f10_b</t>
   </si>
   <si>
@@ -106,6 +103,33 @@
     <t>Fecha de término del periodo que se informa</t>
   </si>
   <si>
+    <t>Total de plazas de confianza</t>
+  </si>
+  <si>
+    <t>Total de plazas de confianza ocupadas</t>
+  </si>
+  <si>
+    <t>Total de plazas de confianza vacantes</t>
+  </si>
+  <si>
+    <t>Área(s) responsable(s) que genera(n), posee(n), publica(n) y actualizan la información</t>
+  </si>
+  <si>
+    <t>Fecha de validación</t>
+  </si>
+  <si>
+    <t>Fecha de actualización</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Departamento de Recursos Humanos (UPP)</t>
+  </si>
+  <si>
+    <t>2022. Total de plazas vacantes y ocupadas. 2018-2020. Total de plazas vacantes y ocupadas del personal de base y confianza.</t>
+  </si>
+  <si>
     <t>Total de plazas de base</t>
   </si>
   <si>
@@ -113,33 +137,6 @@
   </si>
   <si>
     <t>Total de plazas de base vacantes</t>
-  </si>
-  <si>
-    <t>Total de plazas de confianza</t>
-  </si>
-  <si>
-    <t>Total de plazas de confianza ocupadas</t>
-  </si>
-  <si>
-    <t>Total de plazas de confianza vacantes</t>
-  </si>
-  <si>
-    <t>Área(s) responsable(s) que genera(n), posee(n), publica(n) y actualizan la información</t>
-  </si>
-  <si>
-    <t>Fecha de validación</t>
-  </si>
-  <si>
-    <t>Fecha de actualización</t>
-  </si>
-  <si>
-    <t>Nota</t>
-  </si>
-  <si>
-    <t>Recursos Humanos (UPP)</t>
-  </si>
-  <si>
-    <t>La plaza del Titular del Órgano Interno de Control, se pago hasta el 15 de enero, ya que dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría</t>
   </si>
 </sst>
 </file>
@@ -213,24 +210,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -514,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +535,7 @@
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -557,108 +560,108 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>11</v>
-      </c>
-      <c r="M4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -675,85 +678,83 @@
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>470</v>
+      </c>
+      <c r="H8" s="3">
+        <v>467</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44562</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>53</v>
-      </c>
-      <c r="H8" s="2">
-        <v>51</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="3">
-        <v>44659</v>
-      </c>
-      <c r="L8" s="3">
-        <v>44659</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="K8" s="2">
+        <v>44753</v>
+      </c>
+      <c r="L8" s="2">
+        <v>44753</v>
+      </c>
+      <c r="M8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/xlsx/a69_f10_bUPPachuca.xlsx
+++ b/xlsx/a69_f10_bUPPachuca.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C30364-FAC6-41D3-828E-2FB251059A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7290"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -28,6 +34,9 @@
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
+    <t>2021. Total de plazas vacantes y ocupadas. 2018-2020. Total de plazas vacantes y ocupadas del personal de base y confianza.</t>
+  </si>
+  <si>
     <t>a69_f10_b</t>
   </si>
   <si>
@@ -103,6 +112,15 @@
     <t>Fecha de término del periodo que se informa</t>
   </si>
   <si>
+    <t>Total de plazas de base</t>
+  </si>
+  <si>
+    <t>Total de plazas de base ocupadas</t>
+  </si>
+  <si>
+    <t>Total de plazas de base vacantes</t>
+  </si>
+  <si>
     <t>Total de plazas de confianza</t>
   </si>
   <si>
@@ -124,25 +142,13 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Departamento de Recursos Humanos (UPP)</t>
-  </si>
-  <si>
-    <t>2022. Total de plazas vacantes y ocupadas. 2018-2020. Total de plazas vacantes y ocupadas del personal de base y confianza.</t>
-  </si>
-  <si>
-    <t>Total de plazas de base</t>
-  </si>
-  <si>
-    <t>Total de plazas de base ocupadas</t>
-  </si>
-  <si>
-    <t>Total de plazas de base vacantes</t>
+    <t>Recursos Humanos (UPP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,13 +162,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -215,26 +219,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,18 +511,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +539,7 @@
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -560,108 +564,108 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+    <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="9" t="s">
-        <v>5</v>
+      <c r="G3" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -678,83 +682,83 @@
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>465</v>
+      </c>
+      <c r="H8" s="2">
+        <v>463</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>470</v>
-      </c>
-      <c r="H8" s="3">
-        <v>467</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="2">
-        <v>44753</v>
-      </c>
-      <c r="L8" s="2">
-        <v>44753</v>
-      </c>
-      <c r="M8" s="3"/>
+      <c r="K8" s="3">
+        <v>44844</v>
+      </c>
+      <c r="L8" s="3">
+        <v>44844</v>
+      </c>
+      <c r="M8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/xlsx/a69_f10_bUPPachuca.xlsx
+++ b/xlsx/a69_f10_bUPPachuca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C30364-FAC6-41D3-828E-2FB251059A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -142,13 +136,13 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Recursos Humanos (UPP)</t>
+    <t>Departamento de Recursos Humanos (UPP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -210,6 +204,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -225,18 +237,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,18 +523,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +551,7 @@
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -548,38 +560,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -664,21 +676,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -726,39 +738,39 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>465</v>
+        <v>232</v>
       </c>
       <c r="H8" s="2">
-        <v>463</v>
+        <v>231</v>
       </c>
       <c r="I8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="L8" s="3">
-        <v>44844</v>
-      </c>
-      <c r="M8" s="4"/>
+        <v>44936</v>
+      </c>
+      <c r="M8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/xlsx/a69_f10_bUPPachuca.xlsx
+++ b/xlsx/a69_f10_bUPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -156,11 +161,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -181,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -204,29 +211,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -242,13 +231,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -523,7 +509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,7 +520,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,12 +562,12 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
@@ -735,28 +721,28 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="2">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="E8" s="2">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="H8" s="2">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -765,10 +751,10 @@
         <v>40</v>
       </c>
       <c r="K8" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="L8" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="M8" s="2"/>
     </row>

--- a/xlsx/a69_f10_bUPPachuca.xlsx
+++ b/xlsx/a69_f10_bUPPachuca.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\Vo. Bo. Uno 2do Tri 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8497573-3B68-4A36-8ADD-FF133A72C8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>52369</t>
   </si>
@@ -75,12 +76,24 @@
     <t>494582</t>
   </si>
   <si>
+    <t>570815</t>
+  </si>
+  <si>
+    <t>570816</t>
+  </si>
+  <si>
     <t>494586</t>
   </si>
   <si>
     <t>494583</t>
   </si>
   <si>
+    <t>570817</t>
+  </si>
+  <si>
+    <t>570818</t>
+  </si>
+  <si>
     <t>494584</t>
   </si>
   <si>
@@ -117,10 +130,22 @@
     <t>Total de plazas de base ocupadas</t>
   </si>
   <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Total de plazas de base ocupadas por hombres</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Total de plazas de base ocupadas por mujeres</t>
+  </si>
+  <si>
     <t>Total de plazas de base vacantes</t>
   </si>
   <si>
     <t>Total de plazas de confianza</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Total de plazas de confianza ocupadas por hombres</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Total de plazas de confianza ocupadas por mujeres</t>
   </si>
   <si>
     <t>Total de plazas de confianza ocupadas</t>
@@ -147,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,13 +186,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -230,13 +253,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,39 +288,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,6 +353,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -365,6 +405,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,148 +433,172 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -530,22 +611,26 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="83.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="88.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -562,24 +647,24 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -608,19 +693,31 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -660,10 +757,22 @@
       <c r="M5" t="s">
         <v>25</v>
       </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -677,90 +786,118 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2023</v>
       </c>
       <c r="B8" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C8" s="3">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="D8" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E8" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F8" s="2">
+        <v>129</v>
+      </c>
+      <c r="G8" s="2">
+        <v>153</v>
+      </c>
+      <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="2">
-        <v>185</v>
-      </c>
-      <c r="H8" s="2">
-        <v>184</v>
-      </c>
       <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="3">
-        <v>45026</v>
-      </c>
-      <c r="L8" s="3">
-        <v>45026</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="J8" s="2">
+        <v>115</v>
+      </c>
+      <c r="K8" s="2">
+        <v>78</v>
+      </c>
+      <c r="L8" s="2">
+        <v>193</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="3">
+        <v>45117</v>
+      </c>
+      <c r="P8" s="3">
+        <v>45117</v>
+      </c>
+      <c r="Q8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A6:Q6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
